--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21959575</v>
+        <v>21964527</v>
       </c>
       <c r="G2" t="n">
         <v>402</v>
@@ -574,29 +574,29 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>12409</v>
+        <v>12408</v>
       </c>
       <c r="K2" t="n">
-        <v>73342</v>
+        <v>73348</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>1692</v>
+        <v>8561</v>
       </c>
       <c r="N2" t="n">
-        <v>1394</v>
+        <v>3751</v>
       </c>
       <c r="O2" t="n">
-        <v>5466</v>
+        <v>8152</v>
       </c>
       <c r="P2" t="n">
-        <v>17.26100258884443</v>
+        <v>17.26241468580843</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.827018121911</v>
+        <v>120.836902800659</v>
       </c>
       <c r="R2" t="n">
-        <v>483.3080724876442</v>
+        <v>483.3476112026359</v>
       </c>
       <c r="S2" t="n">
         <v>2124.5</v>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25752648</v>
+        <v>25753840</v>
       </c>
       <c r="G3" t="n">
         <v>1219</v>
@@ -650,13 +650,13 @@
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>2830</v>
+        <v>9699</v>
       </c>
       <c r="N3" t="n">
-        <v>2680</v>
+        <v>5037</v>
       </c>
       <c r="O3" t="n">
-        <v>7348</v>
+        <v>10034</v>
       </c>
       <c r="P3" t="n">
         <v>1.362567599341641</v>
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12411608</v>
+        <v>12412441</v>
       </c>
       <c r="G4" t="n">
-        <v>9030</v>
+        <v>9032</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -717,20 +717,20 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>64359</v>
+        <v>64357</v>
       </c>
       <c r="K4" t="n">
         <v>74702</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>2907</v>
+        <v>9776</v>
       </c>
       <c r="N4" t="n">
-        <v>3265</v>
+        <v>5622</v>
       </c>
       <c r="O4" t="n">
-        <v>8028</v>
+        <v>10715</v>
       </c>
       <c r="P4" t="n">
         <v>23.40288220551378</v>
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>18010719</v>
+        <v>18012474</v>
       </c>
       <c r="G5" t="n">
         <v>788</v>
@@ -789,7 +789,7 @@
         <v>3402</v>
       </c>
       <c r="K5" t="n">
-        <v>53508</v>
+        <v>53509</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>4688</v>
+        <v>11497</v>
       </c>
       <c r="N5" t="n">
-        <v>7645</v>
+        <v>9694</v>
       </c>
       <c r="O5" t="n">
-        <v>19143</v>
+        <v>21017</v>
       </c>
       <c r="P5" t="n">
-        <v>11.9384203480589</v>
+        <v>11.93864346273985</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.56894243641231</v>
+        <v>83.57050423917893</v>
       </c>
       <c r="R5" t="n">
-        <v>334.2757697456493</v>
+        <v>334.2820169567157</v>
       </c>
       <c r="S5" t="n">
         <v>2241</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>57629210</v>
+        <v>57631492</v>
       </c>
       <c r="G6" t="n">
         <v>628</v>
@@ -874,13 +874,13 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>14278</v>
+        <v>21089</v>
       </c>
       <c r="N6" t="n">
-        <v>23469</v>
+        <v>25517</v>
       </c>
       <c r="O6" t="n">
-        <v>39956</v>
+        <v>41828</v>
       </c>
       <c r="P6" t="n">
         <v>9.514871563767462</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>14111179</v>
+        <v>14111830</v>
       </c>
       <c r="G7" t="n">
         <v>60</v>
@@ -943,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>741893</v>
+        <v>741914</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -951,22 +951,22 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>14310</v>
+        <v>21137</v>
       </c>
       <c r="N7" t="n">
-        <v>23592</v>
+        <v>25607</v>
       </c>
       <c r="O7" t="n">
-        <v>40030</v>
+        <v>41892</v>
       </c>
       <c r="P7" t="n">
-        <v>136.0522648083624</v>
+        <v>136.0557491289199</v>
       </c>
       <c r="Q7" t="n">
-        <v>952.3658536585366</v>
+        <v>952.390243902439</v>
       </c>
       <c r="R7" t="n">
-        <v>3809.463414634146</v>
+        <v>3809.560975609756</v>
       </c>
       <c r="S7" t="n">
         <v>2726.5</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8368139</v>
+        <v>8368573</v>
       </c>
       <c r="G8" t="n">
         <v>626</v>
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>44333</v>
+        <v>51160</v>
       </c>
       <c r="N8" t="n">
-        <v>57192</v>
+        <v>59207</v>
       </c>
       <c r="O8" t="n">
-        <v>98215</v>
+        <v>100075</v>
       </c>
       <c r="P8" t="n">
         <v>11.92648108493933</v>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>14786669</v>
+        <v>14787281</v>
       </c>
       <c r="G9" t="n">
         <v>792</v>
@@ -1105,13 +1105,13 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>45078</v>
+        <v>51905</v>
       </c>
       <c r="N9" t="n">
-        <v>60973</v>
+        <v>62991</v>
       </c>
       <c r="O9" t="n">
-        <v>105114</v>
+        <v>106990</v>
       </c>
       <c r="P9" t="n">
         <v>0.1138519924098672</v>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3171554</v>
+        <v>3172339</v>
       </c>
       <c r="G10" t="n">
         <v>2109</v>
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>48040</v>
+        <v>54874</v>
       </c>
       <c r="N10" t="n">
-        <v>65462</v>
+        <v>67481</v>
       </c>
       <c r="O10" t="n">
-        <v>111712</v>
+        <v>113586</v>
       </c>
       <c r="P10" t="n">
         <v>9.545433200281757</v>
@@ -1233,10 +1233,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8579664</v>
+        <v>8579655</v>
       </c>
       <c r="G11" t="n">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1256,13 +1256,13 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>48321</v>
+        <v>55155</v>
       </c>
       <c r="N11" t="n">
-        <v>67030</v>
+        <v>69049</v>
       </c>
       <c r="O11" t="n">
-        <v>113968</v>
+        <v>115842</v>
       </c>
       <c r="P11" t="n">
         <v>4.207017543859649</v>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7387793</v>
+        <v>7387884</v>
       </c>
       <c r="G12" t="n">
         <v>1207</v>
@@ -1322,29 +1322,29 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>92588</v>
+        <v>92591</v>
       </c>
       <c r="K12" t="n">
-        <v>51058</v>
+        <v>51059</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>50157</v>
+        <v>56996</v>
       </c>
       <c r="N12" t="n">
-        <v>68455</v>
+        <v>70475</v>
       </c>
       <c r="O12" t="n">
-        <v>140294</v>
+        <v>142190</v>
       </c>
       <c r="P12" t="n">
-        <v>13.08508457201435</v>
+        <v>13.08534085084572</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.59559200410045</v>
+        <v>91.59738595592003</v>
       </c>
       <c r="R12" t="n">
-        <v>366.3823680164018</v>
+        <v>366.3895438236801</v>
       </c>
       <c r="S12" t="n">
         <v>1951</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8603214</v>
+        <v>8604860</v>
       </c>
       <c r="G13" t="n">
         <v>498</v>
@@ -1395,10 +1395,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>5937</v>
+        <v>5941</v>
       </c>
       <c r="K13" t="n">
-        <v>14684</v>
+        <v>14685</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1406,22 +1406,22 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>55154</v>
+        <v>62016</v>
       </c>
       <c r="N13" t="n">
-        <v>83125</v>
+        <v>85211</v>
       </c>
       <c r="O13" t="n">
-        <v>215593</v>
+        <v>217905</v>
       </c>
       <c r="P13" t="n">
-        <v>3.24795399247954</v>
+        <v>3.248175182481752</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.73567794735678</v>
+        <v>22.73722627737226</v>
       </c>
       <c r="R13" t="n">
-        <v>90.94271178942711</v>
+        <v>90.94890510948905</v>
       </c>
       <c r="S13" t="n">
         <v>2260.5</v>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>10734959</v>
+        <v>10735206</v>
       </c>
       <c r="G14" t="n">
         <v>294</v>
@@ -1475,13 +1475,13 @@
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>55154</v>
+        <v>62016</v>
       </c>
       <c r="N14" t="n">
-        <v>83125</v>
+        <v>85211</v>
       </c>
       <c r="O14" t="n">
-        <v>226621</v>
+        <v>228935</v>
       </c>
       <c r="P14" t="n">
         <v>4.102617801047121</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4019296</v>
+        <v>4021773</v>
       </c>
       <c r="G15" t="n">
         <v>2797</v>
@@ -1544,7 +1544,7 @@
         <v>14772</v>
       </c>
       <c r="K15" t="n">
-        <v>26412</v>
+        <v>26418</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1552,22 +1552,22 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>57730</v>
+        <v>73923</v>
       </c>
       <c r="N15" t="n">
-        <v>92219</v>
+        <v>99729</v>
       </c>
       <c r="O15" t="n">
-        <v>245247</v>
+        <v>280555</v>
       </c>
       <c r="P15" t="n">
-        <v>8.962334577536478</v>
+        <v>8.964031218187987</v>
       </c>
       <c r="Q15" t="n">
-        <v>62.73634204275535</v>
+        <v>62.74821852731591</v>
       </c>
       <c r="R15" t="n">
-        <v>250.9453681710214</v>
+        <v>250.9928741092637</v>
       </c>
       <c r="S15" t="n">
         <v>1473.5</v>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9463067</v>
+        <v>9464118</v>
       </c>
       <c r="G16" t="n">
         <v>160</v>
@@ -1621,7 +1621,7 @@
         <v>1830</v>
       </c>
       <c r="K16" t="n">
-        <v>265342</v>
+        <v>265351</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1629,22 +1629,22 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>57961</v>
+        <v>74465</v>
       </c>
       <c r="N16" t="n">
-        <v>92704</v>
+        <v>100614</v>
       </c>
       <c r="O16" t="n">
-        <v>246568</v>
+        <v>284603</v>
       </c>
       <c r="P16" t="n">
-        <v>55.60393964794635</v>
+        <v>55.60561609388098</v>
       </c>
       <c r="Q16" t="n">
-        <v>389.2275775356245</v>
+        <v>389.2393126571668</v>
       </c>
       <c r="R16" t="n">
-        <v>1556.910310142498</v>
+        <v>1556.957250628667</v>
       </c>
       <c r="S16" t="n">
         <v>2386</v>
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>14980855</v>
+        <v>14980874</v>
       </c>
       <c r="G17" t="n">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>58615</v>
+        <v>75119</v>
       </c>
       <c r="N17" t="n">
-        <v>95826</v>
+        <v>103736</v>
       </c>
       <c r="O17" t="n">
-        <v>251259</v>
+        <v>289294</v>
       </c>
       <c r="P17" t="n">
         <v>4.614891736632789</v>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3614726</v>
+        <v>3614741</v>
       </c>
       <c r="G18" t="n">
         <v>856</v>
@@ -1779,13 +1779,13 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>59418</v>
+        <v>75922</v>
       </c>
       <c r="N18" t="n">
-        <v>96659</v>
+        <v>104569</v>
       </c>
       <c r="O18" t="n">
-        <v>258000</v>
+        <v>296034</v>
       </c>
       <c r="P18" t="n">
         <v>1.696302628766831</v>
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>17255099</v>
+        <v>17255200</v>
       </c>
       <c r="G19" t="n">
         <v>396</v>
@@ -1856,13 +1856,13 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>59584</v>
+        <v>76089</v>
       </c>
       <c r="N19" t="n">
-        <v>97838</v>
+        <v>105754</v>
       </c>
       <c r="O19" t="n">
-        <v>263927</v>
+        <v>301971</v>
       </c>
       <c r="P19" t="n">
         <v>16.16454251474225</v>
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8410689</v>
+        <v>8410942</v>
       </c>
       <c r="G20" t="n">
-        <v>172237</v>
+        <v>172234</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="K20" t="n">
-        <v>595079</v>
+        <v>595161</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1933,22 +1933,22 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>59593</v>
+        <v>76097</v>
       </c>
       <c r="N20" t="n">
-        <v>97895</v>
+        <v>105785</v>
       </c>
       <c r="O20" t="n">
-        <v>263948</v>
+        <v>301976</v>
       </c>
       <c r="P20" t="n">
-        <v>113.9779735682819</v>
+        <v>113.9929132350125</v>
       </c>
       <c r="Q20" t="n">
-        <v>797.8458149779735</v>
+        <v>797.9503926450872</v>
       </c>
       <c r="R20" t="n">
-        <v>3191.383259911894</v>
+        <v>3191.801570580349</v>
       </c>
       <c r="S20" t="n">
         <v>2610.5</v>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6554447</v>
+        <v>6554644</v>
       </c>
       <c r="G21" t="n">
         <v>67</v>
@@ -2006,13 +2006,13 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>60146</v>
+        <v>76649</v>
       </c>
       <c r="N21" t="n">
-        <v>99701</v>
+        <v>107591</v>
       </c>
       <c r="O21" t="n">
-        <v>264994</v>
+        <v>303022</v>
       </c>
       <c r="P21" t="n">
         <v>15.11362080766598</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4330155</v>
+        <v>4330850</v>
       </c>
       <c r="G22" t="n">
         <v>136</v>
@@ -2071,26 +2071,26 @@
         <v>841</v>
       </c>
       <c r="K22" t="n">
-        <v>5059</v>
+        <v>5060</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>62347</v>
+        <v>78914</v>
       </c>
       <c r="N22" t="n">
-        <v>100455</v>
+        <v>108375</v>
       </c>
       <c r="O22" t="n">
-        <v>288609</v>
+        <v>327536</v>
       </c>
       <c r="P22" t="n">
-        <v>5.14649033570702</v>
+        <v>5.147507629704985</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.02543234994913</v>
+        <v>36.0325534079349</v>
       </c>
       <c r="R22" t="n">
-        <v>144.1017293997965</v>
+        <v>144.1302136317396</v>
       </c>
       <c r="S22" t="n">
         <v>491.5</v>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1427335</v>
+        <v>1427613</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2141,29 +2141,29 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>16432</v>
+        <v>16431</v>
       </c>
       <c r="K23" t="n">
-        <v>16806</v>
+        <v>16807</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>62377</v>
+        <v>78976</v>
       </c>
       <c r="N23" t="n">
-        <v>100467</v>
+        <v>108393</v>
       </c>
       <c r="O23" t="n">
-        <v>288639</v>
+        <v>327600</v>
       </c>
       <c r="P23" t="n">
-        <v>15.70654205607477</v>
+        <v>15.70747663551402</v>
       </c>
       <c r="Q23" t="n">
-        <v>109.9457943925234</v>
+        <v>109.9523364485981</v>
       </c>
       <c r="R23" t="n">
-        <v>439.7831775700935</v>
+        <v>439.8093457943925</v>
       </c>
       <c r="S23" t="n">
         <v>535</v>
@@ -2198,10 +2198,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5613005</v>
+        <v>5613260</v>
       </c>
       <c r="G24" t="n">
-        <v>4063</v>
+        <v>4060</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2214,10 +2214,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>29475</v>
+        <v>29485</v>
       </c>
       <c r="K24" t="n">
-        <v>22520</v>
+        <v>22526</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2225,22 +2225,22 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>65491</v>
+        <v>81940</v>
       </c>
       <c r="N24" t="n">
-        <v>108601</v>
+        <v>116357</v>
       </c>
       <c r="O24" t="n">
-        <v>300299</v>
+        <v>337726</v>
       </c>
       <c r="P24" t="n">
-        <v>39.16521739130435</v>
+        <v>39.17565217391304</v>
       </c>
       <c r="Q24" t="n">
-        <v>274.1565217391304</v>
+        <v>274.2295652173913</v>
       </c>
       <c r="R24" t="n">
-        <v>1096.626086956522</v>
+        <v>1096.918260869565</v>
       </c>
       <c r="S24" t="n">
         <v>287.5</v>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7504008</v>
+        <v>7503998</v>
       </c>
       <c r="G25" t="n">
         <v>1901</v>
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>20722</v>
+        <v>20723</v>
       </c>
       <c r="K25" t="n">
-        <v>25695</v>
+        <v>25696</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2302,22 +2302,22 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>67539</v>
+        <v>83988</v>
       </c>
       <c r="N25" t="n">
-        <v>110351</v>
+        <v>118107</v>
       </c>
       <c r="O25" t="n">
-        <v>341705</v>
+        <v>379127</v>
       </c>
       <c r="P25" t="n">
-        <v>6.027445460942998</v>
+        <v>6.027680037532254</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.19211822660098</v>
+        <v>42.19376026272578</v>
       </c>
       <c r="R25" t="n">
-        <v>168.7684729064039</v>
+        <v>168.7750410509031</v>
       </c>
       <c r="S25" t="n">
         <v>2131.5</v>
@@ -2352,10 +2352,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>860395</v>
+        <v>860415</v>
       </c>
       <c r="G26" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>1566</v>
       </c>
       <c r="K26" t="n">
-        <v>438303</v>
+        <v>438363</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2379,22 +2379,22 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>67541</v>
+        <v>83991</v>
       </c>
       <c r="N26" t="n">
-        <v>110359</v>
+        <v>118118</v>
       </c>
       <c r="O26" t="n">
-        <v>341711</v>
+        <v>379131</v>
       </c>
       <c r="P26" t="n">
-        <v>92.37154899894625</v>
+        <v>92.38398314014752</v>
       </c>
       <c r="Q26" t="n">
-        <v>646.6008429926238</v>
+        <v>646.6878819810327</v>
       </c>
       <c r="R26" t="n">
-        <v>2586.403371970495</v>
+        <v>2586.751527924131</v>
       </c>
       <c r="S26" t="n">
         <v>2372.5</v>
@@ -2429,10 +2429,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4595925</v>
+        <v>4596389</v>
       </c>
       <c r="G27" t="n">
-        <v>7220</v>
+        <v>7219</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2441,10 +2441,10 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>49401</v>
+        <v>49406</v>
       </c>
       <c r="K27" t="n">
-        <v>24116</v>
+        <v>24119</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2452,22 +2452,22 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>68396</v>
+        <v>84850</v>
       </c>
       <c r="N27" t="n">
-        <v>110743</v>
+        <v>118521</v>
       </c>
       <c r="O27" t="n">
-        <v>354365</v>
+        <v>391910</v>
       </c>
       <c r="P27" t="n">
-        <v>14.13599062133646</v>
+        <v>14.13774912075029</v>
       </c>
       <c r="Q27" t="n">
-        <v>98.95193434935521</v>
+        <v>98.96424384525204</v>
       </c>
       <c r="R27" t="n">
-        <v>395.8077373974209</v>
+        <v>395.8569753810082</v>
       </c>
       <c r="S27" t="n">
         <v>853</v>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7358255</v>
+        <v>7358417</v>
       </c>
       <c r="G28" t="n">
         <v>299</v>
@@ -2521,7 +2521,7 @@
         <v>522</v>
       </c>
       <c r="K28" t="n">
-        <v>481258</v>
+        <v>481322</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2529,22 +2529,22 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>68422</v>
+        <v>84879</v>
       </c>
       <c r="N28" t="n">
-        <v>110912</v>
+        <v>118629</v>
       </c>
       <c r="O28" t="n">
-        <v>354421</v>
+        <v>392086</v>
       </c>
       <c r="P28" t="n">
-        <v>88.69480280132694</v>
+        <v>88.70622926649466</v>
       </c>
       <c r="Q28" t="n">
-        <v>620.8636196092887</v>
+        <v>620.9436048654626</v>
       </c>
       <c r="R28" t="n">
-        <v>2483.454478437155</v>
+        <v>2483.77441946185</v>
       </c>
       <c r="S28" t="n">
         <v>2713</v>
@@ -2575,10 +2575,10 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>3359858</v>
+        <v>3360199</v>
       </c>
       <c r="G29" t="n">
-        <v>11290</v>
+        <v>11289</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2587,10 +2587,10 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>79025</v>
+        <v>79008</v>
       </c>
       <c r="K29" t="n">
-        <v>26808</v>
+        <v>26809</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2598,22 +2598,22 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>69462</v>
+        <v>85987</v>
       </c>
       <c r="N29" t="n">
-        <v>114406</v>
+        <v>122523</v>
       </c>
       <c r="O29" t="n">
-        <v>358204</v>
+        <v>396198</v>
       </c>
       <c r="P29" t="n">
-        <v>6.098271155595996</v>
+        <v>6.098498635122839</v>
       </c>
       <c r="Q29" t="n">
-        <v>42.68789808917197</v>
+        <v>42.68949044585987</v>
       </c>
       <c r="R29" t="n">
-        <v>170.7515923566879</v>
+        <v>170.7579617834395</v>
       </c>
       <c r="S29" t="n">
         <v>2198</v>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7102273</v>
+        <v>7102445</v>
       </c>
       <c r="G30" t="n">
         <v>7444</v>
@@ -2665,7 +2665,7 @@
         <v>119</v>
       </c>
       <c r="K30" t="n">
-        <v>470429</v>
+        <v>470482</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2673,22 +2673,22 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>69473</v>
+        <v>86013</v>
       </c>
       <c r="N30" t="n">
-        <v>114448</v>
+        <v>122604</v>
       </c>
       <c r="O30" t="n">
-        <v>358238</v>
+        <v>396231</v>
       </c>
       <c r="P30" t="n">
-        <v>98.23115472958864</v>
+        <v>98.24159532261433</v>
       </c>
       <c r="Q30" t="n">
-        <v>687.6180831071205</v>
+        <v>687.6911672583003</v>
       </c>
       <c r="R30" t="n">
-        <v>2750.472332428482</v>
+        <v>2750.764669033201</v>
       </c>
       <c r="S30" t="n">
         <v>2394.5</v>
@@ -2723,10 +2723,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4948381</v>
+        <v>4948671</v>
       </c>
       <c r="G31" t="n">
-        <v>4219</v>
+        <v>4220</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>3993</v>
+        <v>3992</v>
       </c>
       <c r="K31" t="n">
-        <v>66353</v>
+        <v>66364</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2750,22 +2750,22 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>69531</v>
+        <v>86043</v>
       </c>
       <c r="N31" t="n">
-        <v>114510</v>
+        <v>122634</v>
       </c>
       <c r="O31" t="n">
-        <v>358373</v>
+        <v>396325</v>
       </c>
       <c r="P31" t="n">
-        <v>12.86160108548168</v>
+        <v>12.863539445629</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.03120759837178</v>
+        <v>90.04477611940298</v>
       </c>
       <c r="R31" t="n">
-        <v>360.1248303934871</v>
+        <v>360.1791044776119</v>
       </c>
       <c r="S31" t="n">
         <v>2579.5</v>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2977462</v>
+        <v>2977518</v>
       </c>
       <c r="G32" t="n">
         <v>555</v>
@@ -2815,7 +2815,7 @@
         <v>4265</v>
       </c>
       <c r="K32" t="n">
-        <v>21848</v>
+        <v>21851</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2823,22 +2823,22 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>69589</v>
+        <v>86108</v>
       </c>
       <c r="N32" t="n">
-        <v>114602</v>
+        <v>122716</v>
       </c>
       <c r="O32" t="n">
-        <v>362128</v>
+        <v>399107</v>
       </c>
       <c r="P32" t="n">
-        <v>5.277294685990338</v>
+        <v>5.278019323671497</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.94106280193237</v>
+        <v>36.94613526570048</v>
       </c>
       <c r="R32" t="n">
-        <v>147.7642512077295</v>
+        <v>147.7845410628019</v>
       </c>
       <c r="S32" t="n">
         <v>2070</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3911985</v>
+        <v>3914538</v>
       </c>
       <c r="G33" t="n">
         <v>1156</v>
@@ -2889,10 +2889,10 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>35231</v>
+        <v>35236</v>
       </c>
       <c r="K33" t="n">
-        <v>30000</v>
+        <v>30001</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2900,22 +2900,22 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>70294</v>
+        <v>86797</v>
       </c>
       <c r="N33" t="n">
-        <v>115643</v>
+        <v>123667</v>
       </c>
       <c r="O33" t="n">
-        <v>369786</v>
+        <v>406742</v>
       </c>
       <c r="P33" t="n">
-        <v>7.594936708860759</v>
+        <v>7.595189873417722</v>
       </c>
       <c r="Q33" t="n">
-        <v>53.16455696202531</v>
+        <v>53.16632911392404</v>
       </c>
       <c r="R33" t="n">
-        <v>212.6582278481012</v>
+        <v>212.6653164556962</v>
       </c>
       <c r="S33" t="n">
         <v>1975</v>
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9143711</v>
+        <v>9143801</v>
       </c>
       <c r="G34" t="n">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>1746</v>
       </c>
       <c r="K34" t="n">
-        <v>14128</v>
+        <v>14130</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>70307</v>
+        <v>87263</v>
       </c>
       <c r="N34" t="n">
-        <v>115782</v>
+        <v>124011</v>
       </c>
       <c r="O34" t="n">
-        <v>370318</v>
+        <v>408352</v>
       </c>
       <c r="P34" t="n">
-        <v>2.904008221993834</v>
+        <v>2.904213771839671</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.32805755395684</v>
+        <v>20.3294964028777</v>
       </c>
       <c r="R34" t="n">
-        <v>81.31223021582734</v>
+        <v>81.31798561151079</v>
       </c>
       <c r="S34" t="n">
         <v>2432.5</v>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>9960501</v>
+        <v>9961290</v>
       </c>
       <c r="G35" t="n">
         <v>258</v>
@@ -3039,10 +3039,10 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>18842</v>
+        <v>18841</v>
       </c>
       <c r="K35" t="n">
-        <v>27785</v>
+        <v>27786</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -3050,22 +3050,22 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>70418</v>
+        <v>87390</v>
       </c>
       <c r="N35" t="n">
-        <v>116076</v>
+        <v>124419</v>
       </c>
       <c r="O35" t="n">
-        <v>370834</v>
+        <v>408953</v>
       </c>
       <c r="P35" t="n">
-        <v>7.692414174972314</v>
+        <v>7.692691029900332</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.8468992248062</v>
+        <v>53.84883720930232</v>
       </c>
       <c r="R35" t="n">
-        <v>215.3875968992248</v>
+        <v>215.3953488372093</v>
       </c>
       <c r="S35" t="n">
         <v>1806</v>
@@ -3082,76 +3082,72 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>142393421</v>
+        <v>1.113094855281009e+18</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GloboNews</t>
+          <t>Sergio Moro</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>GloboNews</t>
+          <t>SF_Moro</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Nunca desliga</t>
+          <t>Casado com Rosângela (@rosangelamorosp), pai orgulhoso de dois filhos e professor. Candidato ao Senado pelo Paraná, 444.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5201086</v>
+        <v>3418714</v>
       </c>
       <c r="G36" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Mon May 10 19:31:38 +0000 2010</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+          <t>Tue Apr 02 15:04:28 +0000 2019</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>220</v>
+        <v>776</v>
       </c>
       <c r="K36" t="n">
-        <v>157006</v>
+        <v>2382</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>http://g1.com.br/globonews</t>
+          <t>https://linktr.ee/sf_moro</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>70424</v>
+        <v>87604</v>
       </c>
       <c r="N36" t="n">
-        <v>116164</v>
+        <v>127581</v>
       </c>
       <c r="O36" t="n">
-        <v>370870</v>
+        <v>411391</v>
       </c>
       <c r="P36" t="n">
-        <v>35.03816112474894</v>
+        <v>1.933441558441559</v>
       </c>
       <c r="Q36" t="n">
-        <v>245.2671278732426</v>
+        <v>13.53409090909091</v>
       </c>
       <c r="R36" t="n">
-        <v>981.0685114929704</v>
+        <v>54.13636363636363</v>
       </c>
       <c r="S36" t="n">
-        <v>2240.5</v>
+        <v>616</v>
       </c>
       <c r="T36" t="n">
-        <v>320.07</v>
+        <v>88</v>
       </c>
       <c r="U36" t="n">
-        <v>80.02</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
@@ -3159,92 +3155,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.113094855281009e+18</v>
+        <v>1.058748734820045e+18</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sergio Moro</t>
+          <t>GIL DO VIGOR</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SF_Moro</t>
+          <t>GilDoVigor</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
-        <is>
-          <t>Casado com Rosângela (@rosangelamorosp), pai orgulhoso de dois filhos e professor. Candidato ao Senado pelo Paraná, 444.</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3418746</v>
-      </c>
-      <c r="G37" t="n">
-        <v>128</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Tue Apr 02 15:04:28 +0000 2019</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>776</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2381</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>https://linktr.ee/sf_moro</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>70637</v>
-      </c>
-      <c r="N37" t="n">
-        <v>119411</v>
-      </c>
-      <c r="O37" t="n">
-        <v>373214</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.93262987012987</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>13.52840909090909</v>
-      </c>
-      <c r="R37" t="n">
-        <v>54.11363636363637</v>
-      </c>
-      <c r="S37" t="n">
-        <v>616</v>
-      </c>
-      <c r="T37" t="n">
-        <v>88</v>
-      </c>
-      <c r="U37" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.058748734820045e+18</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>GIL DO VIGOR</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GilDoVigor</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
         <is>
           <t>🎓 Economista | PhD Student
 🏆 Under 30 Forbes
@@ -3253,59 +3176,137 @@
 📬 Caixa Postal: 210/53435-970</t>
         </is>
       </c>
+      <c r="F37" t="n">
+        <v>3052339</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3006</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Sat Nov 03 15:52:23 +0000 2018</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paulista, PE </t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>25015</v>
+      </c>
+      <c r="K37" t="n">
+        <v>20166</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/gildovigor</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>88277</v>
+      </c>
+      <c r="N37" t="n">
+        <v>129392</v>
+      </c>
+      <c r="O37" t="n">
+        <v>412770</v>
+      </c>
+      <c r="P37" t="n">
+        <v>14.59189580318379</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>102.1432706222866</v>
+      </c>
+      <c r="R37" t="n">
+        <v>408.5730824891462</v>
+      </c>
+      <c r="S37" t="n">
+        <v>691</v>
+      </c>
+      <c r="T37" t="n">
+        <v>98.70999999999999</v>
+      </c>
+      <c r="U37" t="n">
+        <v>24.68</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>13769472</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Atila Iamarino</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>oatila</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Divulgador científico e explicador do mundo por opção contato@atilaiamarino.com.br 
+No Hiperconectado na TV Cultura: sábados às 20:30 e quartas 20h</t>
+        </is>
+      </c>
       <c r="F38" t="n">
-        <v>3052224</v>
+        <v>1304010</v>
       </c>
       <c r="G38" t="n">
-        <v>3004</v>
+        <v>1116</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sat Nov 03 15:52:23 +0000 2018</t>
+          <t>Thu Feb 21 13:22:52 +0000 2008</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paulista, PE </t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>24984</v>
+        <v>6922</v>
       </c>
       <c r="K38" t="n">
-        <v>20155</v>
+        <v>67774</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/gildovigor</t>
+          <t>http://youtube.com/atilaiamarino</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>71309</v>
+        <v>88339</v>
       </c>
       <c r="N38" t="n">
-        <v>121222</v>
+        <v>129748</v>
       </c>
       <c r="O38" t="n">
-        <v>374593</v>
+        <v>413784</v>
       </c>
       <c r="P38" t="n">
-        <v>14.58393632416787</v>
+        <v>12.8117202268431</v>
       </c>
       <c r="Q38" t="n">
-        <v>102.0875542691751</v>
+        <v>89.68204158790171</v>
       </c>
       <c r="R38" t="n">
-        <v>408.3502170767005</v>
+        <v>358.7281663516068</v>
       </c>
       <c r="S38" t="n">
-        <v>691</v>
+        <v>2645</v>
       </c>
       <c r="T38" t="n">
-        <v>98.70999999999999</v>
+        <v>377.86</v>
       </c>
       <c r="U38" t="n">
-        <v>24.68</v>
+        <v>94.45999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3313,77 +3314,76 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13769472</v>
+        <v>41043596</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Atila Iamarino</t>
+          <t>Jorge &amp; Mateus</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>oatila</t>
+          <t>jorgeemateus</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Divulgador científico e explicador do mundo por opção contato@atilaiamarino.com.br 
-No Hiperconectado na TV Cultura: sábados às 20:30 e quartas 20h</t>
+          <t>Jorge &amp; Mateus</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1304011</v>
+        <v>9911113</v>
       </c>
       <c r="G39" t="n">
-        <v>1115</v>
+        <v>112</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Thu Feb 21 13:22:52 +0000 2008</t>
+          <t>Tue May 19 03:19:53 +0000 2009</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>6922</v>
+        <v>4774</v>
       </c>
       <c r="K39" t="n">
-        <v>67774</v>
+        <v>21449</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>http://youtube.com/atilaiamarino</t>
+          <t>http://www.jorgeemateus.com.br</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>71371</v>
+        <v>88356</v>
       </c>
       <c r="N39" t="n">
-        <v>121578</v>
+        <v>129811</v>
       </c>
       <c r="O39" t="n">
-        <v>375607</v>
+        <v>413840</v>
       </c>
       <c r="P39" t="n">
-        <v>12.8117202268431</v>
+        <v>4.434360140583006</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.68204158790171</v>
+        <v>31.04052098408104</v>
       </c>
       <c r="R39" t="n">
-        <v>358.7281663516068</v>
+        <v>124.1620839363242</v>
       </c>
       <c r="S39" t="n">
-        <v>2645</v>
+        <v>2418.5</v>
       </c>
       <c r="T39" t="n">
-        <v>377.86</v>
+        <v>345.5</v>
       </c>
       <c r="U39" t="n">
-        <v>94.45999999999999</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="40">
@@ -3391,76 +3391,68 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>41043596</v>
+        <v>28354416</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Jorge &amp; Mateus</t>
+          <t>lucas vinícius</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>jorgeemateus</t>
+          <t>lucasinutilismo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jorge &amp; Mateus</t>
+          <t>eu num sei na real</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>9910961</v>
+        <v>2481300</v>
       </c>
       <c r="G40" t="n">
-        <v>112</v>
+        <v>417</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tue May 19 03:19:53 +0000 2009</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+          <t>Thu Apr 02 15:11:36 +0000 2009</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>4774</v>
+        <v>10393</v>
       </c>
       <c r="K40" t="n">
-        <v>21449</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>http://www.jorgeemateus.com.br</t>
-        </is>
-      </c>
+        <v>29051</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>71388</v>
+        <v>89528</v>
       </c>
       <c r="N40" t="n">
-        <v>121641</v>
+        <v>131237</v>
       </c>
       <c r="O40" t="n">
-        <v>375663</v>
+        <v>417977</v>
       </c>
       <c r="P40" t="n">
-        <v>4.434360140583006</v>
+        <v>5.948198198198198</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.04052098408104</v>
+        <v>41.63738738738739</v>
       </c>
       <c r="R40" t="n">
-        <v>124.1620839363242</v>
+        <v>166.5495495495496</v>
       </c>
       <c r="S40" t="n">
-        <v>2418.5</v>
+        <v>2442</v>
       </c>
       <c r="T40" t="n">
-        <v>345.5</v>
+        <v>348.86</v>
       </c>
       <c r="U40" t="n">
-        <v>86.38</v>
+        <v>87.20999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3468,77 +3460,76 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17715048</v>
+        <v>790680</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>VEJA</t>
+          <t>BBC News Brasil</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VEJA</t>
+          <t>bbcbrasil</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>VEJA - Quem lê, sabe. Conheça o Plano para Democracia: R$1/mês até as eleições https://t.co/Lmalm9abWs
-Siga também nosso canal no Telegram: https://t.co/8ock12aK6c</t>
+          <t>Eu sou a BBC News Brasil e tuíto sobre notícias no Brasil e no mundo. Participe de um diálogo global aqui comigo!</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>8907519</v>
+        <v>3243965</v>
       </c>
       <c r="G41" t="n">
-        <v>32</v>
+        <v>789</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Fri Nov 28 18:18:59 +0000 2008</t>
+          <t>Fri Feb 23 12:27:26 +0000 2007</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Londres, GB, e São Paulo, BR</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>269</v>
+        <v>634</v>
       </c>
       <c r="K41" t="n">
-        <v>354449</v>
+        <v>265855</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>http://veja.abril.com.br</t>
+          <t>http://bbcbrasil.com</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>71399</v>
+        <v>89544</v>
       </c>
       <c r="N41" t="n">
-        <v>121715</v>
+        <v>131271</v>
       </c>
       <c r="O41" t="n">
-        <v>375679</v>
+        <v>418011</v>
       </c>
       <c r="P41" t="n">
-        <v>70.76242763026552</v>
+        <v>47.02883424730232</v>
       </c>
       <c r="Q41" t="n">
-        <v>495.3369934118587</v>
+        <v>329.2018397311163</v>
       </c>
       <c r="R41" t="n">
-        <v>1981.347973647435</v>
+        <v>1316.807358924465</v>
       </c>
       <c r="S41" t="n">
-        <v>2504.5</v>
+        <v>2826.5</v>
       </c>
       <c r="T41" t="n">
-        <v>357.79</v>
+        <v>403.79</v>
       </c>
       <c r="U41" t="n">
-        <v>89.45</v>
+        <v>100.95</v>
       </c>
     </row>
     <row r="42">
@@ -3546,72 +3537,72 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40097683</v>
+        <v>8.018746231765115e+17</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Evaristo Costa</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>evaristocosta</t>
+          <t>IzaReal</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Journalist &amp; Toro Business Partner</t>
+          <t>cantora/compositora</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2875777</v>
+        <v>4548065</v>
       </c>
       <c r="G42" t="n">
-        <v>514</v>
+        <v>770</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Thu May 14 22:02:23 +0000 2009</t>
+          <t>Thu Nov 24 19:46:23 +0000 2016</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>363</v>
+        <v>24834</v>
       </c>
       <c r="K42" t="n">
-        <v>42862</v>
+        <v>7633</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>https://www.toroinvestimentos.com.br/meu-lado-toro-eva/</t>
+          <t>http://lnk.to/feiza</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>71413</v>
+        <v>89563</v>
       </c>
       <c r="N42" t="n">
-        <v>121783</v>
+        <v>131464</v>
       </c>
       <c r="O42" t="n">
-        <v>375686</v>
+        <v>418364</v>
       </c>
       <c r="P42" t="n">
-        <v>8.852127220156961</v>
+        <v>3.650406504065041</v>
       </c>
       <c r="Q42" t="n">
-        <v>61.96489054109873</v>
+        <v>25.55284552845528</v>
       </c>
       <c r="R42" t="n">
-        <v>247.8595621643949</v>
+        <v>102.2113821138211</v>
       </c>
       <c r="S42" t="n">
-        <v>2421</v>
+        <v>1045.5</v>
       </c>
       <c r="T42" t="n">
-        <v>345.86</v>
+        <v>149.36</v>
       </c>
       <c r="U42" t="n">
-        <v>86.45999999999999</v>
+        <v>37.34</v>
       </c>
     </row>
     <row r="43">
@@ -3619,76 +3610,76 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>790680</v>
+        <v>18297088</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BBC News Brasil</t>
+          <t>Rafinha Bastos</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>bbcbrasil</t>
+          <t>rafinhabastos</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Eu sou a BBC News Brasil e tuíto sobre notícias no Brasil e no mundo. Participe de um diálogo global aqui comigo!</t>
+          <t>Perfil administrado por Rafinha e equipe. Quando a piada for boa, foi do Rafinha. Quando der cagada, foi da equipe. Contato: contato@rafinhabastos.com.br</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3243838</v>
+        <v>11388040</v>
       </c>
       <c r="G43" t="n">
-        <v>789</v>
+        <v>253</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Fri Feb 23 12:27:26 +0000 2007</t>
+          <t>Mon Dec 22 01:11:01 +0000 2008</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Londres, GB, e São Paulo, BR</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>634</v>
+        <v>2831</v>
       </c>
       <c r="K43" t="n">
-        <v>265841</v>
+        <v>35995</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>http://bbcbrasil.com</t>
+          <t>http://www.rafinhabastos.com.br</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>71421</v>
+        <v>89750</v>
       </c>
       <c r="N43" t="n">
-        <v>121805</v>
+        <v>132665</v>
       </c>
       <c r="O43" t="n">
-        <v>375726</v>
+        <v>419181</v>
       </c>
       <c r="P43" t="n">
-        <v>47.02653458340704</v>
+        <v>7.220661985957873</v>
       </c>
       <c r="Q43" t="n">
-        <v>329.1857420838493</v>
+        <v>50.54463390170512</v>
       </c>
       <c r="R43" t="n">
-        <v>1316.742968335397</v>
+        <v>202.1785356068205</v>
       </c>
       <c r="S43" t="n">
-        <v>2826.5</v>
+        <v>2492.5</v>
       </c>
       <c r="T43" t="n">
-        <v>403.79</v>
+        <v>356.07</v>
       </c>
       <c r="U43" t="n">
-        <v>100.95</v>
+        <v>89.02</v>
       </c>
     </row>
     <row r="44">
@@ -3696,72 +3687,77 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>8.018746231765115e+17</v>
+        <v>10842792</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>IZA</t>
+          <t>ge</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>IzaReal</t>
+          <t>geglobo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cantora/compositora</t>
+          <t>É esporte sempre!
+Perfil oficial do https://t.co/PPk2aPfLge no Twitter.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4547509</v>
+        <v>5982431</v>
       </c>
       <c r="G44" t="n">
-        <v>770</v>
+        <v>370</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Thu Nov 24 19:46:23 +0000 2016</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
+          <t>Tue Dec 04 16:44:39 +0000 2007</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
       <c r="J44" t="n">
-        <v>24832</v>
+        <v>3128</v>
       </c>
       <c r="K44" t="n">
-        <v>7632</v>
+        <v>380599</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>http://lnk.to/feiza</t>
+          <t>http://ge.globo</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>71436</v>
+        <v>89779</v>
       </c>
       <c r="N44" t="n">
-        <v>121943</v>
+        <v>132719</v>
       </c>
       <c r="O44" t="n">
-        <v>376012</v>
+        <v>419256</v>
       </c>
       <c r="P44" t="n">
-        <v>3.649928263988522</v>
+        <v>70.88806109145092</v>
       </c>
       <c r="Q44" t="n">
-        <v>25.54949784791965</v>
+        <v>496.2164276401564</v>
       </c>
       <c r="R44" t="n">
-        <v>102.1979913916786</v>
+        <v>1984.865710560626</v>
       </c>
       <c r="S44" t="n">
-        <v>1045.5</v>
+        <v>2684.5</v>
       </c>
       <c r="T44" t="n">
-        <v>149.36</v>
+        <v>383.5</v>
       </c>
       <c r="U44" t="n">
-        <v>37.34</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="45">
@@ -3769,76 +3765,68 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18297088</v>
+        <v>18219976</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Rafinha Bastos</t>
+          <t>TV Globo 📺</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>rafinhabastos</t>
+          <t>tvglobo</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Perfil administrado por Rafinha e equipe. Quando a piada for boa, foi do Rafinha. Quando der cagada, foi da equipe. Contato: contato@rafinhabastos.com.br</t>
+          <t>#MarDoSertão, uma história de amor pra encher o coração! Estreia dia 22 💘</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>11388093</v>
+        <v>13427252</v>
       </c>
       <c r="G45" t="n">
-        <v>253</v>
+        <v>577</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Mon Dec 22 01:11:01 +0000 2008</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+          <t>Thu Dec 18 17:44:57 +0000 2008</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>2831</v>
+        <v>7268</v>
       </c>
       <c r="K45" t="n">
-        <v>35995</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>http://www.rafinhabastos.com.br</t>
-        </is>
-      </c>
+        <v>238313</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>71623</v>
+        <v>89832</v>
       </c>
       <c r="N45" t="n">
-        <v>123146</v>
+        <v>132824</v>
       </c>
       <c r="O45" t="n">
-        <v>376829</v>
+        <v>419434</v>
       </c>
       <c r="P45" t="n">
-        <v>7.220661985957873</v>
+        <v>47.76708759270395</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.54463390170512</v>
+        <v>334.3696131489277</v>
       </c>
       <c r="R45" t="n">
-        <v>202.1785356068205</v>
+        <v>1337.478452595711</v>
       </c>
       <c r="S45" t="n">
-        <v>2492.5</v>
+        <v>2494.5</v>
       </c>
       <c r="T45" t="n">
-        <v>356.07</v>
+        <v>356.36</v>
       </c>
       <c r="U45" t="n">
-        <v>89.02</v>
+        <v>89.09</v>
       </c>
     </row>
     <row r="46">
@@ -3846,77 +3834,73 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10842792</v>
+        <v>7.624027742608753e+17</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ge</t>
+          <t>Boulos 5010</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>geglobo</t>
+          <t>GuilhermeBoulos</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>É esporte sempre!
-Perfil oficial do https://t.co/PPk2aPfLge no Twitter.</t>
+          <t>Candidato a Deputado Federal por SP: 5010. 
+Com @EdianeMariaMTST para Deputada Estadual por SP: 50110.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5981902</v>
+        <v>1757971</v>
       </c>
       <c r="G46" t="n">
-        <v>370</v>
+        <v>1029</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tue Dec 04 16:44:39 +0000 2007</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+          <t>Sun Aug 07 21:39:20 +0000 2016</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>3127</v>
+        <v>16780</v>
       </c>
       <c r="K46" t="n">
-        <v>380577</v>
+        <v>14238</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>http://ge.globo</t>
+          <t>https://linktr.ee/guilhermeboulos.oficial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>71853</v>
+        <v>90655</v>
       </c>
       <c r="N46" t="n">
-        <v>123639</v>
+        <v>142388</v>
       </c>
       <c r="O46" t="n">
-        <v>376963</v>
+        <v>426554</v>
       </c>
       <c r="P46" t="n">
-        <v>70.88414974855652</v>
+        <v>6.471818181818182</v>
       </c>
       <c r="Q46" t="n">
-        <v>496.1890482398957</v>
+        <v>45.30272727272727</v>
       </c>
       <c r="R46" t="n">
-        <v>1984.756192959583</v>
+        <v>181.2109090909091</v>
       </c>
       <c r="S46" t="n">
-        <v>2684.5</v>
+        <v>1100</v>
       </c>
       <c r="T46" t="n">
-        <v>383.5</v>
+        <v>157.14</v>
       </c>
       <c r="U46" t="n">
-        <v>95.88</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="47">
@@ -3924,68 +3908,72 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18219976</v>
+        <v>290243668</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TV Globo 📺</t>
+          <t>rangel</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>tvglobo</t>
+          <t>LucasRanngel</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>#MarDoSertão, uma história de amor pra encher o coração! Estreia dia 22 💘</t>
+          <t>ah ta</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>13427041</v>
+        <v>7841037</v>
       </c>
       <c r="G47" t="n">
-        <v>577</v>
+        <v>9595</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Thu Dec 18 17:44:57 +0000 2008</t>
+          <t>Fri Apr 29 23:56:11 +0000 2011</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>7268</v>
+        <v>11108</v>
       </c>
       <c r="K47" t="n">
-        <v>238277</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
+        <v>74108</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>http://instagram.com/lucasranngel</t>
+        </is>
+      </c>
       <c r="M47" t="n">
-        <v>71913</v>
+        <v>90892</v>
       </c>
       <c r="N47" t="n">
-        <v>123675</v>
+        <v>143372</v>
       </c>
       <c r="O47" t="n">
-        <v>377167</v>
+        <v>428891</v>
       </c>
       <c r="P47" t="n">
-        <v>47.76047304068952</v>
+        <v>17.95686939665617</v>
       </c>
       <c r="Q47" t="n">
-        <v>334.3233112848266</v>
+        <v>125.6980857765932</v>
       </c>
       <c r="R47" t="n">
-        <v>1337.293245139306</v>
+        <v>502.7923431063727</v>
       </c>
       <c r="S47" t="n">
-        <v>2494.5</v>
+        <v>2063.5</v>
       </c>
       <c r="T47" t="n">
-        <v>356.36</v>
+        <v>294.79</v>
       </c>
       <c r="U47" t="n">
-        <v>89.09</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="48">
@@ -3993,294 +3981,74 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.624027742608753e+17</v>
+        <v>36751573</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Boulos 5010</t>
+          <t>Sensacionalista</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>GuilhermeBoulos</t>
+          <t>sensacionalista</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
-        <is>
-          <t>Candidato a Deputado Federal por SP: 5010. 
-Com @EdianeMariaMTST para Deputada Estadual por SP: 50110.</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>1757766</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1028</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Sun Aug 07 21:39:20 +0000 2016</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>16767</v>
-      </c>
-      <c r="K48" t="n">
-        <v>14235</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>https://linktr.ee/guilhermeboulos.oficial</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>72714</v>
-      </c>
-      <c r="N48" t="n">
-        <v>133327</v>
-      </c>
-      <c r="O48" t="n">
-        <v>384077</v>
-      </c>
-      <c r="P48" t="n">
-        <v>6.470454545454546</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>45.29318181818182</v>
-      </c>
-      <c r="R48" t="n">
-        <v>181.1727272727273</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1100</v>
-      </c>
-      <c r="T48" t="n">
-        <v>157.14</v>
-      </c>
-      <c r="U48" t="n">
-        <v>39.29</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>290243668</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>rangel</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>LucasRanngel</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>ah ta</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>7840859</v>
-      </c>
-      <c r="G49" t="n">
-        <v>9595</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Fri Apr 29 23:56:11 +0000 2011</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>11108</v>
-      </c>
-      <c r="K49" t="n">
-        <v>74108</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>http://instagram.com/lucasranngel</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>72951</v>
-      </c>
-      <c r="N49" t="n">
-        <v>134311</v>
-      </c>
-      <c r="O49" t="n">
-        <v>386414</v>
-      </c>
-      <c r="P49" t="n">
-        <v>17.95686939665617</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>125.6980857765932</v>
-      </c>
-      <c r="R49" t="n">
-        <v>502.7923431063727</v>
-      </c>
-      <c r="S49" t="n">
-        <v>2063.5</v>
-      </c>
-      <c r="T49" t="n">
-        <v>294.79</v>
-      </c>
-      <c r="U49" t="n">
-        <v>73.7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>36751573</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Sensacionalista</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>sensacionalista</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
         <is>
           <t>O jornal isento de verdade 
 Comercial: sensacionalistapubli@gmail.com
 Editorial: editor.sensacionalista@gmail.com</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>2360422</v>
-      </c>
-      <c r="G50" t="n">
+      <c r="F48" t="n">
+        <v>2360433</v>
+      </c>
+      <c r="G48" t="n">
         <v>7</v>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Thu Apr 30 19:43:02 +0000 2009</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>950</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K48" t="n">
         <v>17930</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>https://blogs.oglobo.globo.com/sensacionalista/</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>73199</v>
-      </c>
-      <c r="N50" t="n">
-        <v>134920</v>
-      </c>
-      <c r="O50" t="n">
-        <v>388445</v>
-      </c>
-      <c r="P50" t="n">
+      <c r="M48" t="n">
+        <v>91149</v>
+      </c>
+      <c r="N48" t="n">
+        <v>144108</v>
+      </c>
+      <c r="O48" t="n">
+        <v>430948</v>
+      </c>
+      <c r="P48" t="n">
         <v>3.692339373970346</v>
       </c>
-      <c r="Q50" t="n">
+      <c r="Q48" t="n">
         <v>25.84637561779243</v>
       </c>
-      <c r="R50" t="n">
+      <c r="R48" t="n">
         <v>103.3855024711697</v>
       </c>
-      <c r="S50" t="n">
+      <c r="S48" t="n">
         <v>2428</v>
       </c>
-      <c r="T50" t="n">
+      <c r="T48" t="n">
         <v>346.86</v>
       </c>
-      <c r="U50" t="n">
+      <c r="U48" t="n">
         <v>86.70999999999999</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1.095834875716874e+18</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Gabriela Prioli</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>GabrielaPrioli</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>que tal parar de pensar com o fígado? - YouTube: Gabriela Prioli (vídeos terças e quintas às 19h).</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1070873</v>
-      </c>
-      <c r="G51" t="n">
-        <v>392</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Wed Feb 13 23:59:28 +0000 2019</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>3110</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2250</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>https://youtube.com/c/gabrielaprioli</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>73218</v>
-      </c>
-      <c r="N51" t="n">
-        <v>135277</v>
-      </c>
-      <c r="O51" t="n">
-        <v>388898</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.7578125</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>12.3046875</v>
-      </c>
-      <c r="R51" t="n">
-        <v>49.21875</v>
-      </c>
-      <c r="S51" t="n">
-        <v>640</v>
-      </c>
-      <c r="T51" t="n">
-        <v>91.43000000000001</v>
-      </c>
-      <c r="U51" t="n">
-        <v>22.86</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>21964527</v>
+        <v>21966241</v>
       </c>
       <c r="G2" t="n">
         <v>402</v>
@@ -581,13 +581,13 @@
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>8561</v>
+        <v>8588</v>
       </c>
       <c r="N2" t="n">
-        <v>3751</v>
+        <v>3764</v>
       </c>
       <c r="O2" t="n">
-        <v>8152</v>
+        <v>8176</v>
       </c>
       <c r="P2" t="n">
         <v>17.26241468580843</v>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25753840</v>
+        <v>25754311</v>
       </c>
       <c r="G3" t="n">
         <v>1219</v>
@@ -650,13 +650,13 @@
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>9699</v>
+        <v>9726</v>
       </c>
       <c r="N3" t="n">
-        <v>5037</v>
+        <v>5050</v>
       </c>
       <c r="O3" t="n">
-        <v>10034</v>
+        <v>10060</v>
       </c>
       <c r="P3" t="n">
         <v>1.362567599341641</v>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12412441</v>
+        <v>12412732</v>
       </c>
       <c r="G4" t="n">
         <v>9032</v>
@@ -724,13 +724,13 @@
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>9776</v>
+        <v>9803</v>
       </c>
       <c r="N4" t="n">
-        <v>5622</v>
+        <v>5635</v>
       </c>
       <c r="O4" t="n">
-        <v>10715</v>
+        <v>10741</v>
       </c>
       <c r="P4" t="n">
         <v>23.40288220551378</v>
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>18012474</v>
+        <v>18013128</v>
       </c>
       <c r="G5" t="n">
         <v>788</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>11497</v>
+        <v>11525</v>
       </c>
       <c r="N5" t="n">
-        <v>9694</v>
+        <v>9707</v>
       </c>
       <c r="O5" t="n">
-        <v>21017</v>
+        <v>21045</v>
       </c>
       <c r="P5" t="n">
         <v>11.93864346273985</v>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>57631492</v>
+        <v>57632274</v>
       </c>
       <c r="G6" t="n">
         <v>628</v>
@@ -874,13 +874,13 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>21089</v>
+        <v>21117</v>
       </c>
       <c r="N6" t="n">
-        <v>25517</v>
+        <v>25529</v>
       </c>
       <c r="O6" t="n">
-        <v>41828</v>
+        <v>41857</v>
       </c>
       <c r="P6" t="n">
         <v>9.514871563767462</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>14111830</v>
+        <v>14111948</v>
       </c>
       <c r="G7" t="n">
         <v>60</v>
@@ -943,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>741914</v>
+        <v>741925</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -951,22 +951,22 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>21137</v>
+        <v>21134</v>
       </c>
       <c r="N7" t="n">
-        <v>25607</v>
+        <v>25642</v>
       </c>
       <c r="O7" t="n">
-        <v>41892</v>
+        <v>41933</v>
       </c>
       <c r="P7" t="n">
-        <v>136.0557491289199</v>
+        <v>136.0581331377224</v>
       </c>
       <c r="Q7" t="n">
-        <v>952.390243902439</v>
+        <v>952.4069319640565</v>
       </c>
       <c r="R7" t="n">
-        <v>3809.560975609756</v>
+        <v>3809.627727856226</v>
       </c>
       <c r="S7" t="n">
         <v>2726.5</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8368573</v>
+        <v>8368681</v>
       </c>
       <c r="G8" t="n">
         <v>626</v>
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>51160</v>
+        <v>51157</v>
       </c>
       <c r="N8" t="n">
-        <v>59207</v>
+        <v>59241</v>
       </c>
       <c r="O8" t="n">
-        <v>100075</v>
+        <v>100113</v>
       </c>
       <c r="P8" t="n">
         <v>11.92648108493933</v>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>14787281</v>
+        <v>14787440</v>
       </c>
       <c r="G9" t="n">
         <v>792</v>
@@ -1105,13 +1105,13 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>51905</v>
+        <v>51903</v>
       </c>
       <c r="N9" t="n">
-        <v>62991</v>
+        <v>63026</v>
       </c>
       <c r="O9" t="n">
-        <v>106990</v>
+        <v>107029</v>
       </c>
       <c r="P9" t="n">
         <v>0.1138519924098672</v>
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3172339</v>
+        <v>3172503</v>
       </c>
       <c r="G10" t="n">
         <v>2109</v>
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>54874</v>
+        <v>54869</v>
       </c>
       <c r="N10" t="n">
-        <v>67481</v>
+        <v>67516</v>
       </c>
       <c r="O10" t="n">
-        <v>113586</v>
+        <v>113625</v>
       </c>
       <c r="P10" t="n">
         <v>9.545433200281757</v>
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8579655</v>
+        <v>8579665</v>
       </c>
       <c r="G11" t="n">
         <v>587</v>
@@ -1256,13 +1256,13 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>55155</v>
+        <v>55150</v>
       </c>
       <c r="N11" t="n">
-        <v>69049</v>
+        <v>69084</v>
       </c>
       <c r="O11" t="n">
-        <v>115842</v>
+        <v>115881</v>
       </c>
       <c r="P11" t="n">
         <v>4.207017543859649</v>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7387884</v>
+        <v>7387904</v>
       </c>
       <c r="G12" t="n">
         <v>1207</v>
@@ -1329,13 +1329,13 @@
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>56996</v>
+        <v>56993</v>
       </c>
       <c r="N12" t="n">
-        <v>70475</v>
+        <v>70511</v>
       </c>
       <c r="O12" t="n">
-        <v>142190</v>
+        <v>142237</v>
       </c>
       <c r="P12" t="n">
         <v>13.08534085084572</v>
@@ -1379,10 +1379,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8604860</v>
+        <v>8605237</v>
       </c>
       <c r="G13" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>5941</v>
       </c>
       <c r="K13" t="n">
-        <v>14685</v>
+        <v>14688</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1406,22 +1406,22 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>62016</v>
+        <v>62268</v>
       </c>
       <c r="N13" t="n">
-        <v>85211</v>
+        <v>90718</v>
       </c>
       <c r="O13" t="n">
-        <v>217905</v>
+        <v>217697</v>
       </c>
       <c r="P13" t="n">
-        <v>3.248175182481752</v>
+        <v>3.248838752488388</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.73722627737226</v>
+        <v>22.74187126741871</v>
       </c>
       <c r="R13" t="n">
-        <v>90.94890510948905</v>
+        <v>90.96748506967485</v>
       </c>
       <c r="S13" t="n">
         <v>2260.5</v>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>10735206</v>
+        <v>10735317</v>
       </c>
       <c r="G14" t="n">
         <v>294</v>
@@ -1468,20 +1468,20 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>26020</v>
+        <v>26025</v>
       </c>
       <c r="K14" t="n">
         <v>19590</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>62016</v>
+        <v>62268</v>
       </c>
       <c r="N14" t="n">
-        <v>85211</v>
+        <v>90718</v>
       </c>
       <c r="O14" t="n">
-        <v>228935</v>
+        <v>228727</v>
       </c>
       <c r="P14" t="n">
         <v>4.102617801047121</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4021773</v>
+        <v>4022312</v>
       </c>
       <c r="G15" t="n">
         <v>2797</v>
@@ -1544,7 +1544,7 @@
         <v>14772</v>
       </c>
       <c r="K15" t="n">
-        <v>26418</v>
+        <v>26419</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1552,22 +1552,22 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>73923</v>
+        <v>74727</v>
       </c>
       <c r="N15" t="n">
-        <v>99729</v>
+        <v>105846</v>
       </c>
       <c r="O15" t="n">
-        <v>280555</v>
+        <v>283087</v>
       </c>
       <c r="P15" t="n">
-        <v>8.964031218187987</v>
+        <v>8.964709874448591</v>
       </c>
       <c r="Q15" t="n">
-        <v>62.74821852731591</v>
+        <v>62.75296912114014</v>
       </c>
       <c r="R15" t="n">
-        <v>250.9928741092637</v>
+        <v>251.0118764845606</v>
       </c>
       <c r="S15" t="n">
         <v>1473.5</v>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9464118</v>
+        <v>9464376</v>
       </c>
       <c r="G16" t="n">
         <v>160</v>
@@ -1629,22 +1629,22 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>74465</v>
+        <v>75281</v>
       </c>
       <c r="N16" t="n">
-        <v>100614</v>
+        <v>106751</v>
       </c>
       <c r="O16" t="n">
-        <v>284603</v>
+        <v>287244</v>
       </c>
       <c r="P16" t="n">
-        <v>55.60561609388098</v>
+        <v>55.6058256496228</v>
       </c>
       <c r="Q16" t="n">
-        <v>389.2393126571668</v>
+        <v>389.2407795473596</v>
       </c>
       <c r="R16" t="n">
-        <v>1556.957250628667</v>
+        <v>1556.963118189439</v>
       </c>
       <c r="S16" t="n">
         <v>2386</v>
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>14980874</v>
+        <v>14980873</v>
       </c>
       <c r="G17" t="n">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>75119</v>
+        <v>75935</v>
       </c>
       <c r="N17" t="n">
-        <v>103736</v>
+        <v>109873</v>
       </c>
       <c r="O17" t="n">
-        <v>289294</v>
+        <v>291933</v>
       </c>
       <c r="P17" t="n">
         <v>4.614891736632789</v>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3614741</v>
+        <v>3614738</v>
       </c>
       <c r="G18" t="n">
         <v>856</v>
@@ -1779,13 +1779,13 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>75922</v>
+        <v>76738</v>
       </c>
       <c r="N18" t="n">
-        <v>104569</v>
+        <v>110706</v>
       </c>
       <c r="O18" t="n">
-        <v>296034</v>
+        <v>298672</v>
       </c>
       <c r="P18" t="n">
         <v>1.696302628766831</v>
@@ -1856,13 +1856,13 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>76089</v>
+        <v>76906</v>
       </c>
       <c r="N19" t="n">
-        <v>105754</v>
+        <v>111891</v>
       </c>
       <c r="O19" t="n">
-        <v>301971</v>
+        <v>304611</v>
       </c>
       <c r="P19" t="n">
         <v>16.16454251474225</v>
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>8410942</v>
+        <v>8410946</v>
       </c>
       <c r="G20" t="n">
-        <v>172234</v>
+        <v>172233</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="K20" t="n">
-        <v>595161</v>
+        <v>595176</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1933,22 +1933,22 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>76097</v>
+        <v>76920</v>
       </c>
       <c r="N20" t="n">
-        <v>105785</v>
+        <v>111979</v>
       </c>
       <c r="O20" t="n">
-        <v>301976</v>
+        <v>304651</v>
       </c>
       <c r="P20" t="n">
-        <v>113.9929132350125</v>
+        <v>113.9965523846006</v>
       </c>
       <c r="Q20" t="n">
-        <v>797.9503926450872</v>
+        <v>797.9758666922045</v>
       </c>
       <c r="R20" t="n">
-        <v>3191.801570580349</v>
+        <v>3191.903466768818</v>
       </c>
       <c r="S20" t="n">
         <v>2610.5</v>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6554644</v>
+        <v>6554747</v>
       </c>
       <c r="G21" t="n">
         <v>67</v>
@@ -2006,13 +2006,13 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>76649</v>
+        <v>77472</v>
       </c>
       <c r="N21" t="n">
-        <v>107591</v>
+        <v>113785</v>
       </c>
       <c r="O21" t="n">
-        <v>303022</v>
+        <v>305697</v>
       </c>
       <c r="P21" t="n">
         <v>15.11362080766598</v>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4330850</v>
+        <v>4331121</v>
       </c>
       <c r="G22" t="n">
         <v>136</v>
@@ -2071,26 +2071,26 @@
         <v>841</v>
       </c>
       <c r="K22" t="n">
-        <v>5060</v>
+        <v>5061</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>78914</v>
+        <v>79739</v>
       </c>
       <c r="N22" t="n">
-        <v>108375</v>
+        <v>114569</v>
       </c>
       <c r="O22" t="n">
-        <v>327536</v>
+        <v>330341</v>
       </c>
       <c r="P22" t="n">
-        <v>5.147507629704985</v>
+        <v>5.14852492370295</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.0325534079349</v>
+        <v>36.03967446592065</v>
       </c>
       <c r="R22" t="n">
-        <v>144.1302136317396</v>
+        <v>144.1586978636826</v>
       </c>
       <c r="S22" t="n">
         <v>491.5</v>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1427613</v>
+        <v>1427709</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2148,13 +2148,13 @@
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>78976</v>
+        <v>79812</v>
       </c>
       <c r="N23" t="n">
-        <v>108393</v>
+        <v>114587</v>
       </c>
       <c r="O23" t="n">
-        <v>327600</v>
+        <v>330405</v>
       </c>
       <c r="P23" t="n">
         <v>15.70747663551402</v>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5613260</v>
+        <v>5613363</v>
       </c>
       <c r="G24" t="n">
         <v>4060</v>
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>81940</v>
+        <v>82776</v>
       </c>
       <c r="N24" t="n">
-        <v>116357</v>
+        <v>122551</v>
       </c>
       <c r="O24" t="n">
-        <v>337726</v>
+        <v>340531</v>
       </c>
       <c r="P24" t="n">
         <v>39.17565217391304</v>
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7503998</v>
+        <v>7503993</v>
       </c>
       <c r="G25" t="n">
         <v>1901</v>
@@ -2302,13 +2302,13 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>83988</v>
+        <v>84824</v>
       </c>
       <c r="N25" t="n">
-        <v>118107</v>
+        <v>124301</v>
       </c>
       <c r="O25" t="n">
-        <v>379127</v>
+        <v>381930</v>
       </c>
       <c r="P25" t="n">
         <v>6.027680037532254</v>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>860415</v>
+        <v>860423</v>
       </c>
       <c r="G26" t="n">
         <v>93</v>
@@ -2371,7 +2371,7 @@
         <v>1566</v>
       </c>
       <c r="K26" t="n">
-        <v>438363</v>
+        <v>438370</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2379,22 +2379,22 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>83991</v>
+        <v>84824</v>
       </c>
       <c r="N26" t="n">
-        <v>118118</v>
+        <v>124304</v>
       </c>
       <c r="O26" t="n">
-        <v>379131</v>
+        <v>381933</v>
       </c>
       <c r="P26" t="n">
-        <v>92.38398314014752</v>
+        <v>92.38566912539515</v>
       </c>
       <c r="Q26" t="n">
-        <v>646.6878819810327</v>
+        <v>646.699683877766</v>
       </c>
       <c r="R26" t="n">
-        <v>2586.751527924131</v>
+        <v>2586.798735511064</v>
       </c>
       <c r="S26" t="n">
         <v>2372.5</v>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4596389</v>
+        <v>4596558</v>
       </c>
       <c r="G27" t="n">
         <v>7219</v>
@@ -2444,7 +2444,7 @@
         <v>49406</v>
       </c>
       <c r="K27" t="n">
-        <v>24119</v>
+        <v>24118</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2452,22 +2452,22 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>84850</v>
+        <v>85683</v>
       </c>
       <c r="N27" t="n">
-        <v>118521</v>
+        <v>124707</v>
       </c>
       <c r="O27" t="n">
-        <v>391910</v>
+        <v>394712</v>
       </c>
       <c r="P27" t="n">
-        <v>14.13774912075029</v>
+        <v>14.13716295427901</v>
       </c>
       <c r="Q27" t="n">
-        <v>98.96424384525204</v>
+        <v>98.9601406799531</v>
       </c>
       <c r="R27" t="n">
-        <v>395.8569753810082</v>
+        <v>395.8405627198124</v>
       </c>
       <c r="S27" t="n">
         <v>853</v>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7358417</v>
+        <v>7358423</v>
       </c>
       <c r="G28" t="n">
         <v>299</v>
@@ -2521,7 +2521,7 @@
         <v>522</v>
       </c>
       <c r="K28" t="n">
-        <v>481322</v>
+        <v>481340</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2529,22 +2529,22 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>84879</v>
+        <v>85696</v>
       </c>
       <c r="N28" t="n">
-        <v>118629</v>
+        <v>124774</v>
       </c>
       <c r="O28" t="n">
-        <v>392086</v>
+        <v>394762</v>
       </c>
       <c r="P28" t="n">
-        <v>88.70622926649466</v>
+        <v>88.70991522300037</v>
       </c>
       <c r="Q28" t="n">
-        <v>620.9436048654626</v>
+        <v>620.9694065610026</v>
       </c>
       <c r="R28" t="n">
-        <v>2483.77441946185</v>
+        <v>2483.877626244011</v>
       </c>
       <c r="S28" t="n">
         <v>2713</v>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>3360199</v>
+        <v>3360318</v>
       </c>
       <c r="G29" t="n">
         <v>11289</v>
@@ -2598,13 +2598,13 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>85987</v>
+        <v>86804</v>
       </c>
       <c r="N29" t="n">
-        <v>122523</v>
+        <v>128668</v>
       </c>
       <c r="O29" t="n">
-        <v>396198</v>
+        <v>398873</v>
       </c>
       <c r="P29" t="n">
         <v>6.098498635122839</v>
@@ -2665,7 +2665,7 @@
         <v>119</v>
       </c>
       <c r="K30" t="n">
-        <v>470482</v>
+        <v>470495</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2673,22 +2673,22 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>86013</v>
+        <v>86846</v>
       </c>
       <c r="N30" t="n">
-        <v>122604</v>
+        <v>128746</v>
       </c>
       <c r="O30" t="n">
-        <v>396231</v>
+        <v>398919</v>
       </c>
       <c r="P30" t="n">
-        <v>98.24159532261433</v>
+        <v>98.24493631238255</v>
       </c>
       <c r="Q30" t="n">
-        <v>687.6911672583003</v>
+        <v>687.7145541866778</v>
       </c>
       <c r="R30" t="n">
-        <v>2750.764669033201</v>
+        <v>2750.858216746711</v>
       </c>
       <c r="S30" t="n">
         <v>2394.5</v>
@@ -2723,10 +2723,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4948671</v>
+        <v>4948747</v>
       </c>
       <c r="G31" t="n">
-        <v>4220</v>
+        <v>4219</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2742,7 +2742,7 @@
         <v>3992</v>
       </c>
       <c r="K31" t="n">
-        <v>66364</v>
+        <v>66366</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2750,22 +2750,22 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>86043</v>
+        <v>86878</v>
       </c>
       <c r="N31" t="n">
-        <v>122634</v>
+        <v>128779</v>
       </c>
       <c r="O31" t="n">
-        <v>396325</v>
+        <v>399032</v>
       </c>
       <c r="P31" t="n">
-        <v>12.863539445629</v>
+        <v>12.86412095367319</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.04477611940298</v>
+        <v>90.04884667571234</v>
       </c>
       <c r="R31" t="n">
-        <v>360.1791044776119</v>
+        <v>360.1953867028494</v>
       </c>
       <c r="S31" t="n">
         <v>2579.5</v>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2977518</v>
+        <v>2977550</v>
       </c>
       <c r="G32" t="n">
         <v>555</v>
@@ -2815,7 +2815,7 @@
         <v>4265</v>
       </c>
       <c r="K32" t="n">
-        <v>21851</v>
+        <v>21852</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2823,22 +2823,22 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>86108</v>
+        <v>86943</v>
       </c>
       <c r="N32" t="n">
-        <v>122716</v>
+        <v>128880</v>
       </c>
       <c r="O32" t="n">
-        <v>399107</v>
+        <v>401825</v>
       </c>
       <c r="P32" t="n">
-        <v>5.278019323671497</v>
+        <v>5.278260869565218</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.94613526570048</v>
+        <v>36.94782608695652</v>
       </c>
       <c r="R32" t="n">
-        <v>147.7845410628019</v>
+        <v>147.7913043478261</v>
       </c>
       <c r="S32" t="n">
         <v>2070</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3914538</v>
+        <v>3915368</v>
       </c>
       <c r="G33" t="n">
         <v>1156</v>
@@ -2900,13 +2900,13 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>86797</v>
+        <v>87636</v>
       </c>
       <c r="N33" t="n">
-        <v>123667</v>
+        <v>129831</v>
       </c>
       <c r="O33" t="n">
-        <v>406742</v>
+        <v>409486</v>
       </c>
       <c r="P33" t="n">
         <v>7.595189873417722</v>
@@ -2950,10 +2950,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>9143801</v>
+        <v>9143817</v>
       </c>
       <c r="G34" t="n">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>1746</v>
       </c>
       <c r="K34" t="n">
-        <v>14130</v>
+        <v>14131</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2977,22 +2977,22 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>87263</v>
+        <v>88104</v>
       </c>
       <c r="N34" t="n">
-        <v>124011</v>
+        <v>130163</v>
       </c>
       <c r="O34" t="n">
-        <v>408352</v>
+        <v>411113</v>
       </c>
       <c r="P34" t="n">
-        <v>2.904213771839671</v>
+        <v>2.904624871531346</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.3294964028777</v>
+        <v>20.33237410071942</v>
       </c>
       <c r="R34" t="n">
-        <v>81.31798561151079</v>
+        <v>81.32949640287769</v>
       </c>
       <c r="S34" t="n">
         <v>2432.5</v>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>9961290</v>
+        <v>9961556</v>
       </c>
       <c r="G35" t="n">
         <v>258</v>
@@ -3042,7 +3042,7 @@
         <v>18841</v>
       </c>
       <c r="K35" t="n">
-        <v>27786</v>
+        <v>27788</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -3050,22 +3050,22 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>87390</v>
+        <v>88286</v>
       </c>
       <c r="N35" t="n">
-        <v>124419</v>
+        <v>130799</v>
       </c>
       <c r="O35" t="n">
-        <v>408953</v>
+        <v>412066</v>
       </c>
       <c r="P35" t="n">
-        <v>7.692691029900332</v>
+        <v>7.693244739756367</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.84883720930232</v>
+        <v>53.85271317829457</v>
       </c>
       <c r="R35" t="n">
-        <v>215.3953488372093</v>
+        <v>215.4108527131783</v>
       </c>
       <c r="S35" t="n">
         <v>1806</v>
@@ -3082,72 +3082,76 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.113094855281009e+18</v>
+        <v>142393421</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sergio Moro</t>
+          <t>GloboNews</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SF_Moro</t>
+          <t>GloboNews</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Casado com Rosângela (@rosangelamorosp), pai orgulhoso de dois filhos e professor. Candidato ao Senado pelo Paraná, 444.</t>
+          <t>Nunca desliga</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3418714</v>
+        <v>5201385</v>
       </c>
       <c r="G36" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Tue Apr 02 15:04:28 +0000 2019</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>Mon May 10 19:31:38 +0000 2010</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
       <c r="J36" t="n">
-        <v>776</v>
+        <v>220</v>
       </c>
       <c r="K36" t="n">
-        <v>2382</v>
+        <v>157042</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>https://linktr.ee/sf_moro</t>
+          <t>http://g1.com.br/globonews</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>87604</v>
+        <v>88294</v>
       </c>
       <c r="N36" t="n">
-        <v>127581</v>
+        <v>130924</v>
       </c>
       <c r="O36" t="n">
-        <v>411391</v>
+        <v>412103</v>
       </c>
       <c r="P36" t="n">
-        <v>1.933441558441559</v>
+        <v>35.04619504574872</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.53409090909091</v>
+        <v>245.323365320241</v>
       </c>
       <c r="R36" t="n">
-        <v>54.13636363636363</v>
+        <v>981.2934612809642</v>
       </c>
       <c r="S36" t="n">
-        <v>616</v>
+        <v>2240.5</v>
       </c>
       <c r="T36" t="n">
-        <v>88</v>
+        <v>320.07</v>
       </c>
       <c r="U36" t="n">
-        <v>22</v>
+        <v>80.02</v>
       </c>
     </row>
     <row r="37">
@@ -3155,19 +3159,92 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>1.113094855281009e+18</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Sergio Moro</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SF_Moro</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Casado com Rosângela (@rosangelamorosp), pai orgulhoso de dois filhos e professor. Candidato ao Senado pelo Paraná, 444.</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>3418718</v>
+      </c>
+      <c r="G37" t="n">
+        <v>128</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tue Apr 02 15:04:28 +0000 2019</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>776</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2382</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://linktr.ee/sf_moro</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>88496</v>
+      </c>
+      <c r="N37" t="n">
+        <v>134002</v>
+      </c>
+      <c r="O37" t="n">
+        <v>414507</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.933441558441559</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>13.53409090909091</v>
+      </c>
+      <c r="R37" t="n">
+        <v>54.13636363636363</v>
+      </c>
+      <c r="S37" t="n">
+        <v>616</v>
+      </c>
+      <c r="T37" t="n">
+        <v>88</v>
+      </c>
+      <c r="U37" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>1.058748734820045e+18</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>GIL DO VIGOR</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>GilDoVigor</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>🎓 Economista | PhD Student
 🏆 Under 30 Forbes
@@ -3176,137 +3253,59 @@
 📬 Caixa Postal: 210/53435-970</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>3052339</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="F38" t="n">
+        <v>3052389</v>
+      </c>
+      <c r="G38" t="n">
         <v>3006</v>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Sat Nov 03 15:52:23 +0000 2018</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t xml:space="preserve">Paulista, PE </t>
         </is>
       </c>
-      <c r="J37" t="n">
-        <v>25015</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J38" t="n">
+        <v>25020</v>
+      </c>
+      <c r="K38" t="n">
         <v>20166</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>https://www.instagram.com/gildovigor</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>88277</v>
-      </c>
-      <c r="N37" t="n">
-        <v>129392</v>
-      </c>
-      <c r="O37" t="n">
-        <v>412770</v>
-      </c>
-      <c r="P37" t="n">
+      <c r="M38" t="n">
+        <v>89169</v>
+      </c>
+      <c r="N38" t="n">
+        <v>135813</v>
+      </c>
+      <c r="O38" t="n">
+        <v>415886</v>
+      </c>
+      <c r="P38" t="n">
         <v>14.59189580318379</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="Q38" t="n">
         <v>102.1432706222866</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R38" t="n">
         <v>408.5730824891462</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S38" t="n">
         <v>691</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T38" t="n">
         <v>98.70999999999999</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U38" t="n">
         <v>24.68</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>13769472</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Atila Iamarino</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>oatila</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Divulgador científico e explicador do mundo por opção contato@atilaiamarino.com.br 
-No Hiperconectado na TV Cultura: sábados às 20:30 e quartas 20h</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1304010</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1116</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Thu Feb 21 13:22:52 +0000 2008</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>6922</v>
-      </c>
-      <c r="K38" t="n">
-        <v>67774</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>http://youtube.com/atilaiamarino</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>88339</v>
-      </c>
-      <c r="N38" t="n">
-        <v>129748</v>
-      </c>
-      <c r="O38" t="n">
-        <v>413784</v>
-      </c>
-      <c r="P38" t="n">
-        <v>12.8117202268431</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>89.68204158790171</v>
-      </c>
-      <c r="R38" t="n">
-        <v>358.7281663516068</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2645</v>
-      </c>
-      <c r="T38" t="n">
-        <v>377.86</v>
-      </c>
-      <c r="U38" t="n">
-        <v>94.45999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3314,76 +3313,77 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>41043596</v>
+        <v>13769472</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jorge &amp; Mateus</t>
+          <t>Atila Iamarino</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>jorgeemateus</t>
+          <t>oatila</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jorge &amp; Mateus</t>
+          <t>Divulgador científico e explicador do mundo por opção contato@atilaiamarino.com.br 
+No Hiperconectado na TV Cultura: sábados às 20:30 e quartas 20h</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>9911113</v>
+        <v>1304016</v>
       </c>
       <c r="G39" t="n">
-        <v>112</v>
+        <v>1116</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Tue May 19 03:19:53 +0000 2009</t>
+          <t>Thu Feb 21 13:22:52 +0000 2008</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>4774</v>
+        <v>6922</v>
       </c>
       <c r="K39" t="n">
-        <v>21449</v>
+        <v>67774</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>http://www.jorgeemateus.com.br</t>
+          <t>http://youtube.com/atilaiamarino</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>88356</v>
+        <v>89231</v>
       </c>
       <c r="N39" t="n">
-        <v>129811</v>
+        <v>136169</v>
       </c>
       <c r="O39" t="n">
-        <v>413840</v>
+        <v>416900</v>
       </c>
       <c r="P39" t="n">
-        <v>4.434360140583006</v>
+        <v>12.8117202268431</v>
       </c>
       <c r="Q39" t="n">
-        <v>31.04052098408104</v>
+        <v>89.68204158790171</v>
       </c>
       <c r="R39" t="n">
-        <v>124.1620839363242</v>
+        <v>358.7281663516068</v>
       </c>
       <c r="S39" t="n">
-        <v>2418.5</v>
+        <v>2645</v>
       </c>
       <c r="T39" t="n">
-        <v>345.5</v>
+        <v>377.86</v>
       </c>
       <c r="U39" t="n">
-        <v>86.38</v>
+        <v>94.45999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3391,68 +3391,76 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>28354416</v>
+        <v>41043596</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>lucas vinícius</t>
+          <t>Jorge &amp; Mateus</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>lucasinutilismo</t>
+          <t>jorgeemateus</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>eu num sei na real</t>
+          <t>Jorge &amp; Mateus</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2481300</v>
+        <v>9911188</v>
       </c>
       <c r="G40" t="n">
-        <v>417</v>
+        <v>112</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Thu Apr 02 15:11:36 +0000 2009</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>Tue May 19 03:19:53 +0000 2009</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
       <c r="J40" t="n">
-        <v>10393</v>
+        <v>4774</v>
       </c>
       <c r="K40" t="n">
-        <v>29051</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
+        <v>21449</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>http://www.jorgeemateus.com.br</t>
+        </is>
+      </c>
       <c r="M40" t="n">
-        <v>89528</v>
+        <v>89248</v>
       </c>
       <c r="N40" t="n">
-        <v>131237</v>
+        <v>136232</v>
       </c>
       <c r="O40" t="n">
-        <v>417977</v>
+        <v>416956</v>
       </c>
       <c r="P40" t="n">
-        <v>5.948198198198198</v>
+        <v>4.434360140583006</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.63738738738739</v>
+        <v>31.04052098408104</v>
       </c>
       <c r="R40" t="n">
-        <v>166.5495495495496</v>
+        <v>124.1620839363242</v>
       </c>
       <c r="S40" t="n">
-        <v>2442</v>
+        <v>2418.5</v>
       </c>
       <c r="T40" t="n">
-        <v>348.86</v>
+        <v>345.5</v>
       </c>
       <c r="U40" t="n">
-        <v>87.20999999999999</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="41">
@@ -3460,76 +3468,77 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>790680</v>
+        <v>17715048</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BBC News Brasil</t>
+          <t>VEJA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>bbcbrasil</t>
+          <t>VEJA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Eu sou a BBC News Brasil e tuíto sobre notícias no Brasil e no mundo. Participe de um diálogo global aqui comigo!</t>
+          <t>VEJA - Quem lê, sabe. Conheça o Plano para Democracia: R$1/mês até as eleições https://t.co/Lmalm9abWs
+Siga também nosso canal no Telegram: https://t.co/8ock12aK6c</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3243965</v>
+        <v>8907703</v>
       </c>
       <c r="G41" t="n">
-        <v>789</v>
+        <v>32</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Fri Feb 23 12:27:26 +0000 2007</t>
+          <t>Fri Nov 28 18:18:59 +0000 2008</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Londres, GB, e São Paulo, BR</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>634</v>
+        <v>269</v>
       </c>
       <c r="K41" t="n">
-        <v>265855</v>
+        <v>354496</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>http://bbcbrasil.com</t>
+          <t>http://veja.abril.com.br</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>89544</v>
+        <v>89255</v>
       </c>
       <c r="N41" t="n">
-        <v>131271</v>
+        <v>136319</v>
       </c>
       <c r="O41" t="n">
-        <v>418011</v>
+        <v>416981</v>
       </c>
       <c r="P41" t="n">
-        <v>47.02883424730232</v>
+        <v>70.77181074066679</v>
       </c>
       <c r="Q41" t="n">
-        <v>329.2018397311163</v>
+        <v>495.4026751846676</v>
       </c>
       <c r="R41" t="n">
-        <v>1316.807358924465</v>
+        <v>1981.61070073867</v>
       </c>
       <c r="S41" t="n">
-        <v>2826.5</v>
+        <v>2504.5</v>
       </c>
       <c r="T41" t="n">
-        <v>403.79</v>
+        <v>357.79</v>
       </c>
       <c r="U41" t="n">
-        <v>100.95</v>
+        <v>89.45</v>
       </c>
     </row>
     <row r="42">
@@ -3537,72 +3546,68 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>8.018746231765115e+17</v>
+        <v>28354416</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>IZA</t>
+          <t>lucas vinícius</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>IzaReal</t>
+          <t>lucasinutilismo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cantora/compositora</t>
+          <t>eu num sei na real</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4548065</v>
+        <v>2481387</v>
       </c>
       <c r="G42" t="n">
-        <v>770</v>
+        <v>417</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Thu Nov 24 19:46:23 +0000 2016</t>
+          <t>Thu Apr 02 15:11:36 +0000 2009</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>24834</v>
+        <v>10393</v>
       </c>
       <c r="K42" t="n">
-        <v>7633</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>http://lnk.to/feiza</t>
-        </is>
-      </c>
+        <v>29051</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>89563</v>
+        <v>90426</v>
       </c>
       <c r="N42" t="n">
-        <v>131464</v>
+        <v>137745</v>
       </c>
       <c r="O42" t="n">
-        <v>418364</v>
+        <v>421118</v>
       </c>
       <c r="P42" t="n">
-        <v>3.650406504065041</v>
+        <v>5.948198198198198</v>
       </c>
       <c r="Q42" t="n">
-        <v>25.55284552845528</v>
+        <v>41.63738738738739</v>
       </c>
       <c r="R42" t="n">
-        <v>102.2113821138211</v>
+        <v>166.5495495495496</v>
       </c>
       <c r="S42" t="n">
-        <v>1045.5</v>
+        <v>2442</v>
       </c>
       <c r="T42" t="n">
-        <v>149.36</v>
+        <v>348.86</v>
       </c>
       <c r="U42" t="n">
-        <v>37.34</v>
+        <v>87.20999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3610,76 +3615,72 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>18297088</v>
+        <v>40097683</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rafinha Bastos</t>
+          <t>Evaristo Costa</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>rafinhabastos</t>
+          <t>evaristocosta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Perfil administrado por Rafinha e equipe. Quando a piada for boa, foi do Rafinha. Quando der cagada, foi da equipe. Contato: contato@rafinhabastos.com.br</t>
+          <t>Journalist &amp; Toro Business Partner</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>11388040</v>
+        <v>2875768</v>
       </c>
       <c r="G43" t="n">
-        <v>253</v>
+        <v>514</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Mon Dec 22 01:11:01 +0000 2008</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
+          <t>Thu May 14 22:02:23 +0000 2009</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>2831</v>
+        <v>364</v>
       </c>
       <c r="K43" t="n">
-        <v>35995</v>
+        <v>42863</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>http://www.rafinhabastos.com.br</t>
+          <t>https://www.toroinvestimentos.com.br/meu-lado-toro-eva/</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>89750</v>
+        <v>90440</v>
       </c>
       <c r="N43" t="n">
-        <v>132665</v>
+        <v>137813</v>
       </c>
       <c r="O43" t="n">
-        <v>419181</v>
+        <v>421125</v>
       </c>
       <c r="P43" t="n">
-        <v>7.220661985957873</v>
+        <v>8.85233374638579</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.54463390170512</v>
+        <v>61.96633622470054</v>
       </c>
       <c r="R43" t="n">
-        <v>202.1785356068205</v>
+        <v>247.8653448988022</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.5</v>
+        <v>2421</v>
       </c>
       <c r="T43" t="n">
-        <v>356.07</v>
+        <v>345.86</v>
       </c>
       <c r="U43" t="n">
-        <v>89.02</v>
+        <v>86.45999999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3687,77 +3688,76 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10842792</v>
+        <v>790680</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ge</t>
+          <t>BBC News Brasil</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>geglobo</t>
+          <t>bbcbrasil</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>É esporte sempre!
-Perfil oficial do https://t.co/PPk2aPfLge no Twitter.</t>
+          <t>Eu sou a BBC News Brasil e tuíto sobre notícias no Brasil e no mundo. Participe de um diálogo global aqui comigo!</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5982431</v>
+        <v>3243997</v>
       </c>
       <c r="G44" t="n">
-        <v>370</v>
+        <v>789</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Tue Dec 04 16:44:39 +0000 2007</t>
+          <t>Fri Feb 23 12:27:26 +0000 2007</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Londres, GB, e São Paulo, BR</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>3128</v>
+        <v>634</v>
       </c>
       <c r="K44" t="n">
-        <v>380599</v>
+        <v>265858</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>http://ge.globo</t>
+          <t>http://bbcbrasil.com</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>89779</v>
+        <v>90453</v>
       </c>
       <c r="N44" t="n">
-        <v>132719</v>
+        <v>137841</v>
       </c>
       <c r="O44" t="n">
-        <v>419256</v>
+        <v>421169</v>
       </c>
       <c r="P44" t="n">
-        <v>70.88806109145092</v>
+        <v>47.02954183619318</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.2164276401564</v>
+        <v>329.2067928533522</v>
       </c>
       <c r="R44" t="n">
-        <v>1984.865710560626</v>
+        <v>1316.827171413409</v>
       </c>
       <c r="S44" t="n">
-        <v>2684.5</v>
+        <v>2826.5</v>
       </c>
       <c r="T44" t="n">
-        <v>383.5</v>
+        <v>403.79</v>
       </c>
       <c r="U44" t="n">
-        <v>95.88</v>
+        <v>100.95</v>
       </c>
     </row>
     <row r="45">
@@ -3765,68 +3765,76 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18219976</v>
+        <v>3331429624</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TV Globo 📺</t>
+          <t>Metrópoles</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>tvglobo</t>
+          <t>Metropoles</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>#MarDoSertão, uma história de amor pra encher o coração! Estreia dia 22 💘</t>
+          <t>📱 O seu portal de notícias. Tudo sobre política, saúde, justiça, comportamento, entretenimento. Confira os fatos relevantes do país e do mundo em tempo real.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>13427252</v>
+        <v>653962</v>
       </c>
       <c r="G45" t="n">
-        <v>577</v>
+        <v>1507</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Thu Dec 18 17:44:57 +0000 2008</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
+          <t>Wed Jun 17 14:39:37 +0000 2015</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Brasília, Brasil</t>
+        </is>
+      </c>
       <c r="J45" t="n">
-        <v>7268</v>
+        <v>24205</v>
       </c>
       <c r="K45" t="n">
-        <v>238313</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
+        <v>225237</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>http://www.metropoles.com</t>
+        </is>
+      </c>
       <c r="M45" t="n">
-        <v>89832</v>
+        <v>90551</v>
       </c>
       <c r="N45" t="n">
-        <v>132824</v>
+        <v>137978</v>
       </c>
       <c r="O45" t="n">
-        <v>419434</v>
+        <v>421266</v>
       </c>
       <c r="P45" t="n">
-        <v>47.76708759270395</v>
+        <v>86.06687046236148</v>
       </c>
       <c r="Q45" t="n">
-        <v>334.3696131489277</v>
+        <v>602.4680932365304</v>
       </c>
       <c r="R45" t="n">
-        <v>1337.478452595711</v>
+        <v>2409.872372946122</v>
       </c>
       <c r="S45" t="n">
-        <v>2494.5</v>
+        <v>1308.5</v>
       </c>
       <c r="T45" t="n">
-        <v>356.36</v>
+        <v>186.93</v>
       </c>
       <c r="U45" t="n">
-        <v>89.09</v>
+        <v>46.73</v>
       </c>
     </row>
     <row r="46">
@@ -3834,73 +3842,72 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.624027742608753e+17</v>
+        <v>7.271306980212613e+17</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Boulos 5010</t>
+          <t>Alexandre Garcia</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GuilhermeBoulos</t>
+          <t>alexandregarcia</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Candidato a Deputado Federal por SP: 5010. 
-Com @EdianeMariaMTST para Deputada Estadual por SP: 50110.</t>
+          <t>Jornalista. Comentarista no Canal Rural, na JPNews, em 38 jornais e 300 rádios. Instagram 1,8M. Youtuber com mais de 2,3M.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1757971</v>
+        <v>3557047</v>
       </c>
       <c r="G46" t="n">
-        <v>1029</v>
+        <v>491</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Sun Aug 07 21:39:20 +0000 2016</t>
+          <t>Mon May 02 13:40:42 +0000 2016</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>16780</v>
+        <v>112352</v>
       </c>
       <c r="K46" t="n">
-        <v>14238</v>
+        <v>6703</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>https://linktr.ee/guilhermeboulos.oficial</t>
+          <t>http://youtube.com/AlexandreGarciaOficial</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>90655</v>
+        <v>91599</v>
       </c>
       <c r="N46" t="n">
-        <v>142388</v>
+        <v>145085</v>
       </c>
       <c r="O46" t="n">
-        <v>426554</v>
+        <v>444552</v>
       </c>
       <c r="P46" t="n">
-        <v>6.471818181818182</v>
+        <v>2.91815411406182</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.30272727272727</v>
+        <v>20.42707879843274</v>
       </c>
       <c r="R46" t="n">
-        <v>181.2109090909091</v>
+        <v>81.70831519373095</v>
       </c>
       <c r="S46" t="n">
-        <v>1100</v>
+        <v>1148.5</v>
       </c>
       <c r="T46" t="n">
-        <v>157.14</v>
+        <v>164.07</v>
       </c>
       <c r="U46" t="n">
-        <v>39.29</v>
+        <v>41.02</v>
       </c>
     </row>
     <row r="47">
@@ -3908,72 +3915,72 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>290243668</v>
+        <v>8.018746231765115e+17</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>rangel</t>
+          <t>IZA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LucasRanngel</t>
+          <t>IzaReal</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ah ta</t>
+          <t>cantora/compositora</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7841037</v>
+        <v>4548196</v>
       </c>
       <c r="G47" t="n">
-        <v>9595</v>
+        <v>770</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Fri Apr 29 23:56:11 +0000 2011</t>
+          <t>Thu Nov 24 19:46:23 +0000 2016</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>11108</v>
+        <v>24834</v>
       </c>
       <c r="K47" t="n">
-        <v>74108</v>
+        <v>7633</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>http://instagram.com/lucasranngel</t>
+          <t>http://lnk.to/feiza</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>90892</v>
+        <v>91615</v>
       </c>
       <c r="N47" t="n">
-        <v>143372</v>
+        <v>145270</v>
       </c>
       <c r="O47" t="n">
-        <v>428891</v>
+        <v>444846</v>
       </c>
       <c r="P47" t="n">
-        <v>17.95686939665617</v>
+        <v>3.650406504065041</v>
       </c>
       <c r="Q47" t="n">
-        <v>125.6980857765932</v>
+        <v>25.55284552845528</v>
       </c>
       <c r="R47" t="n">
-        <v>502.7923431063727</v>
+        <v>102.2113821138211</v>
       </c>
       <c r="S47" t="n">
-        <v>2063.5</v>
+        <v>1045.5</v>
       </c>
       <c r="T47" t="n">
-        <v>294.79</v>
+        <v>149.36</v>
       </c>
       <c r="U47" t="n">
-        <v>73.7</v>
+        <v>37.34</v>
       </c>
     </row>
     <row r="48">
@@ -3981,74 +3988,297 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>36751573</v>
+        <v>18297088</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sensacionalista</t>
+          <t>Rafinha Bastos</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>sensacionalista</t>
+          <t>rafinhabastos</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>O jornal isento de verdade 
-Comercial: sensacionalistapubli@gmail.com
-Editorial: editor.sensacionalista@gmail.com</t>
+          <t>Perfil administrado por Rafinha e equipe. Quando a piada for boa, foi do Rafinha. Quando der cagada, foi da equipe. Contato: contato@rafinhabastos.com.br</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2360433</v>
+        <v>11388038</v>
       </c>
       <c r="G48" t="n">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Thu Apr 30 19:43:02 +0000 2009</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
+          <t>Mon Dec 22 01:11:01 +0000 2008</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
       <c r="J48" t="n">
-        <v>950</v>
+        <v>2831</v>
       </c>
       <c r="K48" t="n">
-        <v>17930</v>
+        <v>35995</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>https://blogs.oglobo.globo.com/sensacionalista/</t>
+          <t>http://www.rafinhabastos.com.br</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>91149</v>
+        <v>91802</v>
       </c>
       <c r="N48" t="n">
-        <v>144108</v>
+        <v>146471</v>
       </c>
       <c r="O48" t="n">
-        <v>430948</v>
+        <v>445663</v>
       </c>
       <c r="P48" t="n">
-        <v>3.692339373970346</v>
+        <v>7.220661985957873</v>
       </c>
       <c r="Q48" t="n">
-        <v>25.84637561779243</v>
+        <v>50.54463390170512</v>
       </c>
       <c r="R48" t="n">
-        <v>103.3855024711697</v>
+        <v>202.1785356068205</v>
       </c>
       <c r="S48" t="n">
-        <v>2428</v>
+        <v>2492.5</v>
       </c>
       <c r="T48" t="n">
-        <v>346.86</v>
+        <v>356.07</v>
       </c>
       <c r="U48" t="n">
-        <v>86.70999999999999</v>
+        <v>89.02</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10842792</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ge</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>geglobo</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>É esporte sempre!
+Perfil oficial do https://t.co/PPk2aPfLge no Twitter.</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>5982570</v>
+      </c>
+      <c r="G49" t="n">
+        <v>370</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Tue Dec 04 16:44:39 +0000 2007</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Brasil</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>3128</v>
+      </c>
+      <c r="K49" t="n">
+        <v>380602</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>http://ge.globo</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>91826</v>
+      </c>
+      <c r="N49" t="n">
+        <v>146512</v>
+      </c>
+      <c r="O49" t="n">
+        <v>445721</v>
+      </c>
+      <c r="P49" t="n">
+        <v>70.88880610914509</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>496.2216427640157</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1984.886571056063</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2684.5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>383.5</v>
+      </c>
+      <c r="U49" t="n">
+        <v>95.88</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>18219976</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>TV Globo 📺</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>tvglobo</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>#MarDoSertão, uma história de amor pra encher o coração! Estreia dia 22 💘</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>13427321</v>
+      </c>
+      <c r="G50" t="n">
+        <v>577</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Thu Dec 18 17:44:57 +0000 2008</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>7268</v>
+      </c>
+      <c r="K50" t="n">
+        <v>238317</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>91933</v>
+      </c>
+      <c r="N50" t="n">
+        <v>146652</v>
+      </c>
+      <c r="O50" t="n">
+        <v>446005</v>
+      </c>
+      <c r="P50" t="n">
+        <v>47.76849067949489</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>334.3794347564643</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1337.517739025857</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2494.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>356.36</v>
+      </c>
+      <c r="U50" t="n">
+        <v>89.09</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>7.624027742608753e+17</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Boulos 5010</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GuilhermeBoulos</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Candidato a Deputado Federal por SP: 5010. 
+Com @EdianeMariaMTST para Deputada Estadual por SP: 50110.</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1758009</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1029</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sun Aug 07 21:39:20 +0000 2016</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>16780</v>
+      </c>
+      <c r="K51" t="n">
+        <v>14238</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://linktr.ee/guilhermeboulos.oficial</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>92760</v>
+      </c>
+      <c r="N51" t="n">
+        <v>156344</v>
+      </c>
+      <c r="O51" t="n">
+        <v>453161</v>
+      </c>
+      <c r="P51" t="n">
+        <v>6.471818181818182</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>45.30272727272727</v>
+      </c>
+      <c r="R51" t="n">
+        <v>181.2109090909091</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1100</v>
+      </c>
+      <c r="T51" t="n">
+        <v>157.14</v>
+      </c>
+      <c r="U51" t="n">
+        <v>39.29</v>
       </c>
     </row>
   </sheetData>
